--- a/StructureDefinition-ext-R5-Measure.group.xlsx
+++ b/StructureDefinition-ext-R5-Measure.group.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5348" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5351" uniqueCount="441">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,7 +455,7 @@
     <t>Example of measure groups.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-measure-group-example-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-measure-group-example-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:description</t>
@@ -527,12 +527,6 @@
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-measure-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:subject</t>
   </si>
   <si>
@@ -568,7 +562,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1)</t>
+Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group)</t>
   </si>
   <si>
     <t>Extension.extension:basis</t>
@@ -643,9 +637,6 @@
     <t>Extension.extension:scoring.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-measure-scoring-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:scoringUnit</t>
   </si>
   <si>
@@ -746,12 +737,6 @@
   </si>
   <si>
     <t>Extension.extension:improvementNotation.value[x]</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-measure-improvement-notation-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:library</t>
@@ -786,7 +771,7 @@
     <t>Extension.extension:library.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Library|0.0.1-snapshot-3|Library|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Library|Library)
 </t>
   </si>
   <si>
@@ -878,12 +863,6 @@
   </si>
   <si>
     <t>Extension.extension:population.extension:code.value[x]</t>
-  </si>
-  <si>
-    <t>The type of population.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-measure-population-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:population.extension:description</t>
@@ -987,7 +966,7 @@
     <t>Extension.extension:population.extension:groupDefinition.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group)
 </t>
   </si>
   <si>
@@ -1150,7 +1129,7 @@
     <t>Meaning of the stratifier.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-measure-stratifier-example-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-measure-stratifier-example-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:stratifier.extension:description</t>
@@ -1770,7 +1749,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="23.703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="79.73828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.24609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4263,11 +4242,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4305,13 +4286,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4336,16 +4317,16 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4414,7 +4395,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -4517,7 +4498,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -4622,7 +4603,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -4665,7 +4646,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4727,7 +4708,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -4753,16 +4734,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4832,13 +4813,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4863,16 +4844,16 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4941,7 +4922,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -5044,7 +5025,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -5149,7 +5130,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -5192,7 +5173,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5254,7 +5235,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -5280,16 +5261,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5359,13 +5340,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5390,16 +5371,16 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5468,7 +5449,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -5571,7 +5552,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -5676,7 +5657,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5719,7 +5700,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5781,7 +5762,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5810,13 +5791,13 @@
         <v>136</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5842,11 +5823,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5884,13 +5867,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5915,16 +5898,16 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5993,7 +5976,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -6096,7 +6079,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -6201,7 +6184,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -6244,7 +6227,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6306,7 +6289,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -6335,13 +6318,13 @@
         <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6411,13 +6394,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6442,16 +6425,16 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6520,7 +6503,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -6623,7 +6606,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6728,7 +6711,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -6771,7 +6754,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6833,7 +6816,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -6862,13 +6845,13 @@
         <v>150</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6938,13 +6921,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6969,16 +6952,16 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7047,7 +7030,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -7150,7 +7133,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -7255,7 +7238,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -7298,7 +7281,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7360,7 +7343,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -7389,13 +7372,13 @@
         <v>136</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7421,11 +7404,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -7463,13 +7448,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7494,14 +7479,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7570,7 +7555,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -7673,7 +7658,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -7778,7 +7763,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7821,7 +7806,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7883,7 +7868,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -7909,13 +7894,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7986,13 +7971,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8017,14 +8002,14 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8093,7 +8078,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -8196,7 +8181,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -8299,7 +8284,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>108</v>
@@ -8330,16 +8315,16 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>103</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8408,10 +8393,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8511,10 +8496,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8616,10 +8601,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8659,7 +8644,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8721,10 +8706,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8750,10 +8735,10 @@
         <v>87</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>103</v>
@@ -8826,7 +8811,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>108</v>
@@ -8857,14 +8842,14 @@
         <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8933,10 +8918,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9036,10 +9021,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9141,10 +9126,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9184,7 +9169,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -9246,10 +9231,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9275,10 +9260,10 @@
         <v>136</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9305,13 +9290,13 @@
         <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>77</v>
@@ -9349,7 +9334,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>108</v>
@@ -9380,14 +9365,14 @@
         <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9456,10 +9441,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9559,10 +9544,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9664,10 +9649,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9707,7 +9692,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9769,10 +9754,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9798,10 +9783,10 @@
         <v>150</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9872,13 +9857,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9903,16 +9888,16 @@
         <v>93</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9981,10 +9966,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10084,10 +10069,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10189,10 +10174,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10232,7 +10217,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10294,10 +10279,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10320,16 +10305,16 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -10399,13 +10384,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10430,16 +10415,16 @@
         <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10508,10 +10493,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10611,10 +10596,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10716,10 +10701,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10759,7 +10744,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10821,10 +10806,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10847,16 +10832,16 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -10926,13 +10911,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10957,14 +10942,14 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11033,10 +11018,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11136,10 +11121,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11241,10 +11226,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11284,7 +11269,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11346,10 +11331,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11375,10 +11360,10 @@
         <v>87</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11449,13 +11434,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11480,14 +11465,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11556,10 +11541,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11659,10 +11644,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11764,10 +11749,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11807,7 +11792,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11869,10 +11854,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11898,10 +11883,10 @@
         <v>136</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11972,7 +11957,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -12015,7 +12000,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12077,7 +12062,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -12103,13 +12088,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12180,13 +12165,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12211,14 +12196,14 @@
         <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12287,7 +12272,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>106</v>
@@ -12390,7 +12375,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>108</v>
@@ -12493,7 +12478,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>108</v>
@@ -12524,7 +12509,7 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>102</v>
@@ -12533,7 +12518,7 @@
         <v>103</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12602,10 +12587,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12705,10 +12690,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12810,10 +12795,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12853,7 +12838,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12915,10 +12900,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12944,7 +12929,7 @@
         <v>87</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M107" t="s" s="2">
         <v>102</v>
@@ -13020,7 +13005,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>108</v>
@@ -13051,14 +13036,14 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13127,10 +13112,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13230,10 +13215,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13335,10 +13320,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13378,7 +13363,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13440,10 +13425,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13469,10 +13454,10 @@
         <v>136</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13502,10 +13487,10 @@
         <v>137</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>77</v>
@@ -13543,7 +13528,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>108</v>
@@ -13574,14 +13559,14 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13650,10 +13635,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13753,10 +13738,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13858,10 +13843,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13901,7 +13886,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13963,10 +13948,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13992,10 +13977,10 @@
         <v>150</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14066,13 +14051,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14097,14 +14082,14 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14173,10 +14158,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14276,10 +14261,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14381,10 +14366,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14424,7 +14409,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14486,10 +14471,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14512,13 +14497,13 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14589,13 +14574,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14620,16 +14605,16 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14698,10 +14683,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14801,10 +14786,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14906,10 +14891,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -14949,7 +14934,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15011,10 +14996,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15037,16 +15022,16 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -15116,13 +15101,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -15147,16 +15132,16 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15225,10 +15210,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15328,10 +15313,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15431,10 +15416,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C131" t="s" s="2">
         <v>100</v>
@@ -15462,7 +15447,7 @@
         <v>93</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>102</v>
@@ -15471,7 +15456,7 @@
         <v>103</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -15540,10 +15525,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15643,10 +15628,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15748,10 +15733,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15791,7 +15776,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -15853,10 +15838,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15882,7 +15867,7 @@
         <v>87</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="M135" t="s" s="2">
         <v>102</v>
@@ -15958,10 +15943,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>127</v>
@@ -15989,14 +15974,14 @@
         <v>93</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -16065,10 +16050,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16168,10 +16153,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16273,10 +16258,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16316,7 +16301,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16378,10 +16363,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16407,10 +16392,10 @@
         <v>136</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16440,10 +16425,10 @@
         <v>137</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>77</v>
@@ -16481,10 +16466,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C141" t="s" s="2">
         <v>141</v>
@@ -16512,14 +16497,14 @@
         <v>93</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -16588,10 +16573,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16691,10 +16676,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -16796,10 +16781,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16839,7 +16824,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -16901,10 +16886,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -16930,10 +16915,10 @@
         <v>150</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -17004,13 +16989,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>77</v>
@@ -17035,14 +17020,14 @@
         <v>93</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>77</v>
@@ -17111,10 +17096,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17214,10 +17199,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17319,10 +17304,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17362,7 +17347,7 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>77</v>
@@ -17424,10 +17409,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17450,13 +17435,13 @@
         <v>77</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -17527,13 +17512,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>77</v>
@@ -17558,16 +17543,16 @@
         <v>93</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>77</v>
@@ -17636,10 +17621,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17739,10 +17724,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -17844,10 +17829,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -17887,7 +17872,7 @@
       </c>
       <c r="Q154" s="2"/>
       <c r="R154" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="S154" t="s" s="2">
         <v>77</v>
@@ -17949,10 +17934,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -17975,16 +17960,16 @@
         <v>77</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
@@ -18054,10 +18039,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18097,7 +18082,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -18159,10 +18144,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18185,13 +18170,13 @@
         <v>77</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -18262,7 +18247,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>114</v>
@@ -18305,7 +18290,7 @@
       </c>
       <c r="Q158" s="2"/>
       <c r="R158" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>77</v>
@@ -18367,7 +18352,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>123</v>
@@ -18393,13 +18378,13 @@
         <v>77</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -18601,13 +18586,13 @@
         <v>77</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
